--- a/Web Sc/community_7 - Edit.xlsx
+++ b/Web Sc/community_7 - Edit.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2C14963A-9847-47F5-A812-E757FA7488EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA150319-32B0-4003-B3D6-78F1B94F1E46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="community_7 - Edit" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -394,7 +402,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1242,11 +1250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,16 +1360,16 @@
         <v>0.71249999999999991</v>
       </c>
       <c r="N2" s="1">
-        <f>M2*0.85</f>
-        <v>0.60562499999999986</v>
+        <f>M2/1.15</f>
+        <v>0.61956521739130432</v>
       </c>
       <c r="O2" s="1">
         <f>N2-G2</f>
-        <v>-0.29437500000000005</v>
+        <v>-0.28043478260869559</v>
       </c>
       <c r="P2" s="3">
         <f>O2/G2</f>
-        <v>-0.32708333333333345</v>
+        <v>-0.31159420289855067</v>
       </c>
       <c r="Q2" s="3">
         <f>COUNTIF(I2:L2,"&gt;"&amp;G2)/4</f>
@@ -1429,16 +1437,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="N4" s="1">
-        <f>M4*0.85</f>
-        <v>0.57374999999999998</v>
+        <f t="shared" ref="N4:N18" si="0">M4/1.15</f>
+        <v>0.58695652173913049</v>
       </c>
       <c r="O4" s="1">
         <f>N4-G4</f>
-        <v>-0.42625000000000002</v>
+        <v>-0.41304347826086951</v>
       </c>
       <c r="P4" s="3">
         <f>O4/G4</f>
-        <v>-0.42625000000000002</v>
+        <v>-0.41304347826086951</v>
       </c>
       <c r="Q4" s="3">
         <f>COUNTIF(I4:L4,"&gt;"&amp;G4)/4</f>
@@ -1489,16 +1497,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="N5" s="1">
-        <f>M5*0.85</f>
-        <v>0.57374999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.58695652173913049</v>
       </c>
       <c r="O5" s="1">
         <f>N5-G5</f>
-        <v>-0.52625000000000011</v>
+        <v>-0.5130434782608696</v>
       </c>
       <c r="P5" s="3">
         <f>O5/G5</f>
-        <v>-0.47840909090909095</v>
+        <v>-0.46640316205533594</v>
       </c>
       <c r="Q5" s="3">
         <f>COUNTIF(I5:L5,"&gt;"&amp;G5)/4</f>
@@ -1566,16 +1574,16 @@
         <v>1.2850000000000001</v>
       </c>
       <c r="N7" s="1">
-        <f>M7*0.85</f>
-        <v>1.0922500000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.1173913043478263</v>
       </c>
       <c r="O7" s="1">
         <f>N7-G7</f>
-        <v>-0.30774999999999997</v>
+        <v>-0.28260869565217384</v>
       </c>
       <c r="P7" s="3">
         <f>O7/G7</f>
-        <v>-0.21982142857142853</v>
+        <v>-0.20186335403726702</v>
       </c>
       <c r="Q7" s="3">
         <f>COUNTIF(I7:L7,"&gt;"&amp;G7)/4</f>
@@ -1808,16 +1816,16 @@
         <v>1.7950000000000002</v>
       </c>
       <c r="N18" s="1">
-        <f>M18*0.85</f>
-        <v>1.5257500000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.5608695652173916</v>
       </c>
       <c r="O18" s="1">
         <f>N18-G18</f>
-        <v>-1.0742499999999999</v>
+        <v>-1.0391304347826085</v>
       </c>
       <c r="P18" s="3">
         <f>O18/G18</f>
-        <v>-0.41317307692307687</v>
+        <v>-0.39966555183946478</v>
       </c>
       <c r="Q18" s="3">
         <f>COUNTIF(I18:L18,"&gt;"&amp;G18)/4</f>
